--- a/data/class_roll200407.xlsx
+++ b/data/class_roll200407.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/DS2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263F24FD-1ED2-DF40-9D49-BEBB43C85DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7BD87-2083-9144-9EA2-1523084858A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="2580" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="6320" yWindow="2580" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class_roll200407" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="369">
   <si>
     <t>과목명 : 데이터과학입문-01(712000)</t>
   </si>
@@ -1125,13 +1125,17 @@
   </si>
   <si>
     <t>010-8931-9587</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9076-7267</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -1787,6 +1791,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1795,9 +1802,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2153,11 +2157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2174,19 +2178,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1">
+    <row r="7" spans="1:9" s="3" customFormat="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
+    <row r="8" spans="1:9" s="3" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2365,7 +2369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1">
+    <row r="9" spans="1:9" s="3" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1">
+    <row r="10" spans="1:9" s="3" customFormat="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1">
+    <row r="12" spans="1:9" s="3" customFormat="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1">
+    <row r="13" spans="1:9" s="3" customFormat="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1">
+    <row r="14" spans="1:9" s="3" customFormat="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1">
+    <row r="15" spans="1:9" s="3" customFormat="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1">
+    <row r="16" spans="1:9" s="3" customFormat="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1">
+    <row r="17" spans="1:9" s="3" customFormat="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1">
+    <row r="18" spans="1:9" s="3" customFormat="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2615,7 +2619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1">
+    <row r="19" spans="1:9" s="3" customFormat="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2665,7 +2669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="6" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1">
+    <row r="23" spans="1:9" s="3" customFormat="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1">
+    <row r="24" spans="1:9" s="3" customFormat="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="6" customFormat="1">
+    <row r="25" spans="1:9" s="3" customFormat="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="6" customFormat="1">
+    <row r="26" spans="1:9" s="3" customFormat="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1">
+    <row r="27" spans="1:9" s="3" customFormat="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="6" customFormat="1">
+    <row r="28" spans="1:9" s="3" customFormat="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="6" customFormat="1">
+    <row r="29" spans="1:9" s="3" customFormat="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="6" customFormat="1">
+    <row r="30" spans="1:9" s="3" customFormat="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="6" customFormat="1">
+    <row r="31" spans="1:9" s="3" customFormat="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="6" customFormat="1">
+    <row r="32" spans="1:9" s="3" customFormat="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="6" customFormat="1">
+    <row r="33" spans="1:9" s="3" customFormat="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="6" customFormat="1">
+    <row r="34" spans="1:9" s="3" customFormat="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="6" customFormat="1">
+    <row r="35" spans="1:9" s="3" customFormat="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="6" customFormat="1">
+    <row r="36" spans="1:9" s="3" customFormat="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="6" customFormat="1">
+    <row r="37" spans="1:9" s="3" customFormat="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3090,7 +3094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="6" customFormat="1">
+    <row r="38" spans="1:9" s="3" customFormat="1">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="6" customFormat="1">
+    <row r="39" spans="1:9" s="3" customFormat="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="6" customFormat="1">
+    <row r="40" spans="1:9" s="3" customFormat="1">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="6" customFormat="1">
+    <row r="41" spans="1:9" s="3" customFormat="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3190,7 +3194,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1">
+    <row r="42" spans="1:9" s="3" customFormat="1">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="6" customFormat="1">
+    <row r="43" spans="1:9" s="3" customFormat="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="6" customFormat="1">
+    <row r="44" spans="1:9" s="3" customFormat="1">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="6" customFormat="1">
+    <row r="45" spans="1:9" s="3" customFormat="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3290,7 +3294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="6" customFormat="1">
+    <row r="46" spans="1:9" s="3" customFormat="1">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="6" customFormat="1">
+    <row r="47" spans="1:9" s="3" customFormat="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="6" customFormat="1">
+    <row r="48" spans="1:9" s="3" customFormat="1">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="6" customFormat="1">
+    <row r="49" spans="1:9" s="3" customFormat="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="6" customFormat="1">
+    <row r="50" spans="1:9" s="3" customFormat="1">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="6" customFormat="1">
+    <row r="51" spans="1:9" s="3" customFormat="1">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="6" customFormat="1">
+    <row r="52" spans="1:9" s="3" customFormat="1">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1">
+    <row r="53" spans="1:9" s="3" customFormat="1">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3490,7 +3494,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="6" customFormat="1">
+    <row r="54" spans="1:9" s="3" customFormat="1">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="6" customFormat="1">
+    <row r="55" spans="1:9" s="3" customFormat="1">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="6" customFormat="1">
+    <row r="56" spans="1:9" s="3" customFormat="1">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="6" customFormat="1">
+    <row r="57" spans="1:9" s="3" customFormat="1">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3590,7 +3594,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="6" customFormat="1">
+    <row r="58" spans="1:9" s="3" customFormat="1">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="6" customFormat="1">
+    <row r="59" spans="1:9" s="3" customFormat="1">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="6" customFormat="1">
+    <row r="60" spans="1:9" s="3" customFormat="1">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3665,7 +3669,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="6" customFormat="1">
+    <row r="61" spans="1:9" s="3" customFormat="1">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3690,7 +3694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="6" customFormat="1">
+    <row r="62" spans="1:9" s="3" customFormat="1">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="6" customFormat="1">
+    <row r="63" spans="1:9" s="3" customFormat="1">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="6" customFormat="1">
+    <row r="64" spans="1:9" s="3" customFormat="1">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="6" customFormat="1">
+    <row r="65" spans="1:9" s="3" customFormat="1">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="6" customFormat="1">
+    <row r="66" spans="1:9" s="3" customFormat="1">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="6" customFormat="1">
+    <row r="67" spans="1:9" s="3" customFormat="1">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="6" customFormat="1">
+    <row r="68" spans="1:9" s="3" customFormat="1">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="6" customFormat="1">
+    <row r="69" spans="1:9" s="3" customFormat="1">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="6" customFormat="1">
+    <row r="70" spans="1:9" s="3" customFormat="1">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="6" customFormat="1">
+    <row r="71" spans="1:9" s="3" customFormat="1">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="6" customFormat="1">
+    <row r="72" spans="1:9" s="3" customFormat="1">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="6" customFormat="1">
+    <row r="73" spans="1:9" s="3" customFormat="1">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="6" customFormat="1">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="6" customFormat="1">
+    <row r="75" spans="1:9" s="3" customFormat="1">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="6" customFormat="1">
+    <row r="76" spans="1:9" s="3" customFormat="1">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="6" customFormat="1">
+    <row r="77" spans="1:9" s="3" customFormat="1">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4090,7 +4094,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="6" customFormat="1">
+    <row r="78" spans="1:9" s="3" customFormat="1">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4111,11 +4115,11 @@
         <v>240</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="2">
-        <v>1090767267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="6" customFormat="1">
+      <c r="I78" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="3" customFormat="1">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="6" customFormat="1">
+    <row r="80" spans="1:9" s="3" customFormat="1">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="6" customFormat="1">
+    <row r="81" spans="1:9" s="3" customFormat="1">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="6" customFormat="1">
+    <row r="82" spans="1:9" s="3" customFormat="1">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -4215,7 +4219,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="6" customFormat="1">
+    <row r="83" spans="1:9" s="3" customFormat="1">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="6" customFormat="1">
+    <row r="84" spans="1:9" s="3" customFormat="1">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -4265,7 +4269,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="6" customFormat="1">
+    <row r="85" spans="1:9" s="3" customFormat="1">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="6" customFormat="1">
+    <row r="86" spans="1:9" s="3" customFormat="1">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="6" customFormat="1">
+    <row r="87" spans="1:9" s="3" customFormat="1">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="6" customFormat="1">
+    <row r="88" spans="1:9" s="3" customFormat="1">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4365,7 +4369,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="6" customFormat="1">
+    <row r="89" spans="1:9" s="3" customFormat="1">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="6" customFormat="1">
+    <row r="90" spans="1:9" s="3" customFormat="1">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="6" customFormat="1">
+    <row r="91" spans="1:9" s="3" customFormat="1">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="6" customFormat="1">
+    <row r="92" spans="1:9" s="3" customFormat="1">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="6" customFormat="1">
+    <row r="93" spans="1:9" s="3" customFormat="1">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -4490,7 +4494,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="6" customFormat="1">
+    <row r="94" spans="1:9" s="3" customFormat="1">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="6" customFormat="1">
+    <row r="95" spans="1:9" s="3" customFormat="1">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="6" customFormat="1">
+    <row r="96" spans="1:9" s="3" customFormat="1">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="6" customFormat="1">
+    <row r="97" spans="1:9" s="3" customFormat="1">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="6" customFormat="1">
+    <row r="98" spans="1:9" s="3" customFormat="1">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="6" customFormat="1">
+    <row r="99" spans="1:9" s="3" customFormat="1">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -4640,7 +4644,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="6" customFormat="1">
+    <row r="100" spans="1:9" s="3" customFormat="1">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="6" customFormat="1">
+    <row r="101" spans="1:9" s="3" customFormat="1">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -4690,7 +4694,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="6" customFormat="1">
+    <row r="102" spans="1:9" s="3" customFormat="1">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="6" customFormat="1">
+    <row r="103" spans="1:9" s="3" customFormat="1">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="6" customFormat="1">
+    <row r="104" spans="1:9" s="3" customFormat="1">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -4765,7 +4769,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="6" customFormat="1">
+    <row r="105" spans="1:9" s="3" customFormat="1">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="6" customFormat="1">
+    <row r="106" spans="1:9" s="3" customFormat="1">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="6" customFormat="1">
+    <row r="107" spans="1:9" s="3" customFormat="1">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="6" customFormat="1">
+    <row r="108" spans="1:9" s="3" customFormat="1">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="6" customFormat="1">
+    <row r="109" spans="1:9" s="3" customFormat="1">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="6" customFormat="1">
+    <row r="110" spans="1:9" s="3" customFormat="1">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="6" customFormat="1">
+    <row r="111" spans="1:9" s="3" customFormat="1">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -4940,7 +4944,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="6" customFormat="1">
+    <row r="112" spans="1:9" s="3" customFormat="1">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="6" customFormat="1">
+    <row r="113" spans="1:9" s="3" customFormat="1">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="6" customFormat="1">
+    <row r="114" spans="1:9" s="3" customFormat="1">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="6" customFormat="1">
+    <row r="115" spans="1:9" s="3" customFormat="1">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="6" customFormat="1">
+    <row r="116" spans="1:9" s="3" customFormat="1">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="6" customFormat="1">
+    <row r="117" spans="1:9" s="3" customFormat="1">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="6" customFormat="1">
+    <row r="118" spans="1:9" s="3" customFormat="1">
       <c r="A118" s="2">
         <v>116</v>
       </c>
